--- a/olympics/Medals.xlsx
+++ b/olympics/Medals.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i841640/Documents/unisinos/big_data_etl/etl_medals/olympics/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD9E2EF-0552-1047-9CEC-B774C4389C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" r:id="rId3" sheetId="1"/>
+    <sheet name="Details" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="176">
   <si>
     <t>Rank</t>
   </si>
@@ -537,16 +545,18 @@
   </si>
   <si>
     <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -558,7 +568,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -573,21 +583,332 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,8 +930,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="H1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -632,8 +956,11 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="H2" s="1">
+        <v>44527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -656,7 +983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -679,7 +1006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -702,7 +1029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -725,7 +1052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -748,7 +1075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -771,7 +1098,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -794,7 +1121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -817,7 +1144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -840,7 +1167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -863,7 +1190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -886,7 +1213,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -909,7 +1236,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -932,7 +1259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -955,7 +1282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -978,7 +1305,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1001,7 +1328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1047,7 +1374,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1070,7 +1397,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1093,7 +1420,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1116,7 +1443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1139,7 +1466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1162,7 +1489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1185,7 +1512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1208,7 +1535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1231,7 +1558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1254,7 +1581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1277,7 +1604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -1300,7 +1627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -1323,7 +1650,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1346,7 +1673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1369,7 +1696,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -1392,7 +1719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>89</v>
       </c>
@@ -1415,7 +1742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1438,7 +1765,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -1461,7 +1788,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -1484,7 +1811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1507,7 +1834,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1530,7 +1857,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1553,7 +1880,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1576,7 +1903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -1599,7 +1926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -1622,7 +1949,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -1645,7 +1972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1668,7 +1995,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -1691,7 +2018,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -1714,7 +2041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -1737,7 +2064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>112</v>
       </c>
@@ -1760,7 +2087,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -1783,7 +2110,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -1806,7 +2133,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>117</v>
       </c>
@@ -1829,7 +2156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -1852,7 +2179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -1875,7 +2202,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>123</v>
       </c>
@@ -1898,7 +2225,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -1921,7 +2248,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +2271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>127</v>
       </c>
@@ -1967,7 +2294,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -1990,7 +2317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -2013,7 +2340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>127</v>
       </c>
@@ -2036,7 +2363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -2059,7 +2386,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -2082,7 +2409,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>132</v>
       </c>
@@ -2105,7 +2432,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -2128,7 +2455,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -2151,7 +2478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -2174,7 +2501,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>142</v>
       </c>
@@ -2197,7 +2524,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -2220,7 +2547,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -2243,7 +2570,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>147</v>
       </c>
@@ -2266,7 +2593,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -2289,7 +2616,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>150</v>
       </c>
@@ -2312,7 +2639,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>150</v>
       </c>
@@ -2335,7 +2662,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -2358,7 +2685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -2381,7 +2708,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>134</v>
       </c>
@@ -2404,7 +2731,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>134</v>
       </c>
@@ -2427,7 +2754,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>134</v>
       </c>
@@ -2450,7 +2777,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>134</v>
       </c>
@@ -2473,7 +2800,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>134</v>
       </c>
@@ -2496,7 +2823,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>160</v>
       </c>
@@ -2519,7 +2846,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>162</v>
       </c>
@@ -2542,7 +2869,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -2565,7 +2892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -2588,7 +2915,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>166</v>
       </c>
@@ -2611,7 +2938,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>166</v>
       </c>
@@ -2634,7 +2961,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>166</v>
       </c>
@@ -2657,7 +2984,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>166</v>
       </c>
@@ -2680,7 +3007,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>166</v>
       </c>
@@ -2703,7 +3030,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -2726,7 +3053,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -2750,6 +3077,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/olympics/Medals.xlsx
+++ b/olympics/Medals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i841640/Documents/unisinos/big_data_etl/etl_medals/olympics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD9E2EF-0552-1047-9CEC-B774C4389C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16325C4F-2A17-0045-924A-40C430FFF8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="176">
   <si>
     <t>Rank</t>
   </si>
@@ -900,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2754,7 +2754,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>134</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>134</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>134</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>160</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>162</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>166</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>166</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>166</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>166</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>166</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>166</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>166</v>
       </c>
@@ -3074,6 +3074,2421 @@
       </c>
       <c r="G94" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>36</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" t="s">
+        <v>39</v>
+      </c>
+      <c r="G100" t="s">
+        <v>36</v>
+      </c>
+      <c r="H100" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D101" t="s">
+        <v>42</v>
+      </c>
+      <c r="E101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" t="s">
+        <v>43</v>
+      </c>
+      <c r="G101" t="s">
+        <v>44</v>
+      </c>
+      <c r="H101" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" t="s">
+        <v>47</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>41</v>
+      </c>
+      <c r="H102" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103" t="s">
+        <v>49</v>
+      </c>
+      <c r="F103" t="s">
+        <v>50</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" t="s">
+        <v>52</v>
+      </c>
+      <c r="G104" t="s">
+        <v>38</v>
+      </c>
+      <c r="H104" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" t="s">
+        <v>47</v>
+      </c>
+      <c r="F105" t="s">
+        <v>54</v>
+      </c>
+      <c r="G105" t="s">
+        <v>47</v>
+      </c>
+      <c r="H105" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" t="s">
+        <v>36</v>
+      </c>
+      <c r="E106" t="s">
+        <v>45</v>
+      </c>
+      <c r="F106" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" t="s">
+        <v>42</v>
+      </c>
+      <c r="H106" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" t="s">
+        <v>36</v>
+      </c>
+      <c r="E107" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" t="s">
+        <v>56</v>
+      </c>
+      <c r="H107" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>22</v>
+      </c>
+      <c r="B108" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" t="s">
+        <v>59</v>
+      </c>
+      <c r="G108" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>59</v>
+      </c>
+      <c r="B109" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" t="s">
+        <v>56</v>
+      </c>
+      <c r="H109" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s">
+        <v>56</v>
+      </c>
+      <c r="H110" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" t="s">
+        <v>47</v>
+      </c>
+      <c r="G112" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>41</v>
+      </c>
+      <c r="G113" t="s">
+        <v>66</v>
+      </c>
+      <c r="H113" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>45</v>
+      </c>
+      <c r="G114" t="s">
+        <v>68</v>
+      </c>
+      <c r="H114" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" t="s">
+        <v>69</v>
+      </c>
+      <c r="C115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" t="s">
+        <v>44</v>
+      </c>
+      <c r="G115" t="s">
+        <v>70</v>
+      </c>
+      <c r="H115" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" t="s">
+        <v>45</v>
+      </c>
+      <c r="E116" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" t="s">
+        <v>73</v>
+      </c>
+      <c r="F117" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" t="s">
+        <v>56</v>
+      </c>
+      <c r="G118" t="s">
+        <v>32</v>
+      </c>
+      <c r="H118" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>66</v>
+      </c>
+      <c r="B119" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" t="s">
+        <v>47</v>
+      </c>
+      <c r="G119" t="s">
+        <v>34</v>
+      </c>
+      <c r="H119" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>45</v>
+      </c>
+      <c r="G120" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" t="s">
+        <v>77</v>
+      </c>
+      <c r="C121" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>38</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" t="s">
+        <v>78</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" t="s">
+        <v>44</v>
+      </c>
+      <c r="G122" t="s">
+        <v>70</v>
+      </c>
+      <c r="H122" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>68</v>
+      </c>
+      <c r="B123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" t="s">
+        <v>38</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>80</v>
+      </c>
+      <c r="B124" t="s">
+        <v>81</v>
+      </c>
+      <c r="C124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>36</v>
+      </c>
+      <c r="G124" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s">
+        <v>84</v>
+      </c>
+      <c r="H125" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" t="s">
+        <v>73</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>25</v>
+      </c>
+      <c r="G126" t="s">
+        <v>84</v>
+      </c>
+      <c r="H126" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" t="s">
+        <v>45</v>
+      </c>
+      <c r="G127" t="s">
+        <v>68</v>
+      </c>
+      <c r="H127" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" t="s">
+        <v>88</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" t="s">
+        <v>28</v>
+      </c>
+      <c r="H128" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>89</v>
+      </c>
+      <c r="B129" t="s">
+        <v>90</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>44</v>
+      </c>
+      <c r="F129" t="s">
+        <v>56</v>
+      </c>
+      <c r="G129" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130" t="s">
+        <v>91</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>92</v>
+      </c>
+      <c r="H130" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" t="s">
+        <v>93</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>92</v>
+      </c>
+      <c r="H131" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>94</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>73</v>
+      </c>
+      <c r="F132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s">
+        <v>95</v>
+      </c>
+      <c r="H132" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>73</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s">
+        <v>92</v>
+      </c>
+      <c r="H133" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>73</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" t="s">
+        <v>92</v>
+      </c>
+      <c r="H134" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>73</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" t="s">
+        <v>19</v>
+      </c>
+      <c r="G135" t="s">
+        <v>95</v>
+      </c>
+      <c r="H135" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>84</v>
+      </c>
+      <c r="B136" t="s">
+        <v>99</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>73</v>
+      </c>
+      <c r="E136" t="s">
+        <v>73</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>100</v>
+      </c>
+      <c r="H136" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>84</v>
+      </c>
+      <c r="B137" t="s">
+        <v>101</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
+        <v>73</v>
+      </c>
+      <c r="E137" t="s">
+        <v>73</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>100</v>
+      </c>
+      <c r="H137" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>102</v>
+      </c>
+      <c r="B138" t="s">
+        <v>103</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" t="s">
+        <v>63</v>
+      </c>
+      <c r="G138" t="s">
+        <v>49</v>
+      </c>
+      <c r="H138" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>104</v>
+      </c>
+      <c r="B139" t="s">
+        <v>105</v>
+      </c>
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" t="s">
+        <v>38</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>39</v>
+      </c>
+      <c r="B140" t="s">
+        <v>106</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140" t="s">
+        <v>73</v>
+      </c>
+      <c r="F140" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" t="s">
+        <v>92</v>
+      </c>
+      <c r="H140" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>39</v>
+      </c>
+      <c r="B141" t="s">
+        <v>107</v>
+      </c>
+      <c r="C141" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" t="s">
+        <v>73</v>
+      </c>
+      <c r="F141" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s">
+        <v>92</v>
+      </c>
+      <c r="H141" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>108</v>
+      </c>
+      <c r="B142" t="s">
+        <v>109</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>26</v>
+      </c>
+      <c r="F142" t="s">
+        <v>38</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>110</v>
+      </c>
+      <c r="B143" t="s">
+        <v>111</v>
+      </c>
+      <c r="C143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" t="s">
+        <v>9</v>
+      </c>
+      <c r="H143" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>112</v>
+      </c>
+      <c r="B144" t="s">
+        <v>113</v>
+      </c>
+      <c r="C144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" t="s">
+        <v>92</v>
+      </c>
+      <c r="H144" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>112</v>
+      </c>
+      <c r="B145" t="s">
+        <v>114</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145" t="s">
+        <v>92</v>
+      </c>
+      <c r="H145" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>115</v>
+      </c>
+      <c r="B146" t="s">
+        <v>116</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>73</v>
+      </c>
+      <c r="F146" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>95</v>
+      </c>
+      <c r="H146" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>117</v>
+      </c>
+      <c r="B147" t="s">
+        <v>118</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
+        <v>25</v>
+      </c>
+      <c r="F147" t="s">
+        <v>38</v>
+      </c>
+      <c r="G147" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>119</v>
+      </c>
+      <c r="B148" t="s">
+        <v>120</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>26</v>
+      </c>
+      <c r="F148" t="s">
+        <v>36</v>
+      </c>
+      <c r="G148" t="s">
+        <v>9</v>
+      </c>
+      <c r="H148" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>121</v>
+      </c>
+      <c r="B149" t="s">
+        <v>122</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" t="s">
+        <v>25</v>
+      </c>
+      <c r="G149" t="s">
+        <v>84</v>
+      </c>
+      <c r="H149" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>123</v>
+      </c>
+      <c r="B150" t="s">
+        <v>124</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>26</v>
+      </c>
+      <c r="G150" t="s">
+        <v>92</v>
+      </c>
+      <c r="H150" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>123</v>
+      </c>
+      <c r="B151" t="s">
+        <v>125</v>
+      </c>
+      <c r="C151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s">
+        <v>92</v>
+      </c>
+      <c r="H151" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" t="s">
+        <v>126</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>73</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>100</v>
+      </c>
+      <c r="H152" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>127</v>
+      </c>
+      <c r="B153" t="s">
+        <v>128</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>73</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s">
+        <v>100</v>
+      </c>
+      <c r="H153" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>127</v>
+      </c>
+      <c r="B154" t="s">
+        <v>129</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>73</v>
+      </c>
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>100</v>
+      </c>
+      <c r="H154" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>127</v>
+      </c>
+      <c r="B155" t="s">
+        <v>130</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>73</v>
+      </c>
+      <c r="E155" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>100</v>
+      </c>
+      <c r="H155" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>127</v>
+      </c>
+      <c r="B156" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>73</v>
+      </c>
+      <c r="E156" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>100</v>
+      </c>
+      <c r="H156" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>132</v>
+      </c>
+      <c r="B157" t="s">
+        <v>133</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>73</v>
+      </c>
+      <c r="E157" t="s">
+        <v>73</v>
+      </c>
+      <c r="F157" t="s">
+        <v>7</v>
+      </c>
+      <c r="G157" t="s">
+        <v>134</v>
+      </c>
+      <c r="H157" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>132</v>
+      </c>
+      <c r="B158" t="s">
+        <v>135</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>73</v>
+      </c>
+      <c r="E158" t="s">
+        <v>73</v>
+      </c>
+      <c r="F158" t="s">
+        <v>7</v>
+      </c>
+      <c r="G158" t="s">
+        <v>134</v>
+      </c>
+      <c r="H158" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>132</v>
+      </c>
+      <c r="B159" t="s">
+        <v>136</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>73</v>
+      </c>
+      <c r="E159" t="s">
+        <v>73</v>
+      </c>
+      <c r="F159" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" t="s">
+        <v>134</v>
+      </c>
+      <c r="H159" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>100</v>
+      </c>
+      <c r="B160" t="s">
+        <v>137</v>
+      </c>
+      <c r="C160" t="s">
+        <v>73</v>
+      </c>
+      <c r="D160" t="s">
+        <v>26</v>
+      </c>
+      <c r="E160" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" t="s">
+        <v>25</v>
+      </c>
+      <c r="G160" t="s">
+        <v>84</v>
+      </c>
+      <c r="H160" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>138</v>
+      </c>
+      <c r="B161" t="s">
+        <v>139</v>
+      </c>
+      <c r="C161" t="s">
+        <v>73</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" t="s">
+        <v>26</v>
+      </c>
+      <c r="F161" t="s">
+        <v>38</v>
+      </c>
+      <c r="G161" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>140</v>
+      </c>
+      <c r="B162" t="s">
+        <v>141</v>
+      </c>
+      <c r="C162" t="s">
+        <v>73</v>
+      </c>
+      <c r="D162" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>25</v>
+      </c>
+      <c r="G162" t="s">
+        <v>84</v>
+      </c>
+      <c r="H162" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>142</v>
+      </c>
+      <c r="B163" t="s">
+        <v>143</v>
+      </c>
+      <c r="C163" t="s">
+        <v>73</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>26</v>
+      </c>
+      <c r="G163" t="s">
+        <v>92</v>
+      </c>
+      <c r="H163" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" t="s">
+        <v>145</v>
+      </c>
+      <c r="C164" t="s">
+        <v>73</v>
+      </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
+        <v>95</v>
+      </c>
+      <c r="H164" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>35</v>
+      </c>
+      <c r="B165" t="s">
+        <v>146</v>
+      </c>
+      <c r="C165" t="s">
+        <v>73</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" t="s">
+        <v>19</v>
+      </c>
+      <c r="F165" t="s">
+        <v>26</v>
+      </c>
+      <c r="G165" t="s">
+        <v>92</v>
+      </c>
+      <c r="H165" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>147</v>
+      </c>
+      <c r="B166" t="s">
+        <v>148</v>
+      </c>
+      <c r="C166" t="s">
+        <v>73</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s">
+        <v>95</v>
+      </c>
+      <c r="H166" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>147</v>
+      </c>
+      <c r="B167" t="s">
+        <v>149</v>
+      </c>
+      <c r="C167" t="s">
+        <v>73</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167" t="s">
+        <v>95</v>
+      </c>
+      <c r="H167" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>150</v>
+      </c>
+      <c r="B168" t="s">
+        <v>151</v>
+      </c>
+      <c r="C168" t="s">
+        <v>73</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" t="s">
+        <v>100</v>
+      </c>
+      <c r="H168" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>150</v>
+      </c>
+      <c r="B169" t="s">
+        <v>152</v>
+      </c>
+      <c r="C169" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>100</v>
+      </c>
+      <c r="H169" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>150</v>
+      </c>
+      <c r="B170" t="s">
+        <v>153</v>
+      </c>
+      <c r="C170" t="s">
+        <v>73</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s">
+        <v>100</v>
+      </c>
+      <c r="H170" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>134</v>
+      </c>
+      <c r="B171" t="s">
+        <v>154</v>
+      </c>
+      <c r="C171" t="s">
+        <v>73</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" t="s">
+        <v>73</v>
+      </c>
+      <c r="F171" t="s">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>134</v>
+      </c>
+      <c r="H171" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>134</v>
+      </c>
+      <c r="B172" t="s">
+        <v>155</v>
+      </c>
+      <c r="C172" t="s">
+        <v>73</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" t="s">
+        <v>73</v>
+      </c>
+      <c r="F172" t="s">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>134</v>
+      </c>
+      <c r="H172" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>134</v>
+      </c>
+      <c r="B173" t="s">
+        <v>156</v>
+      </c>
+      <c r="C173" t="s">
+        <v>73</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" t="s">
+        <v>73</v>
+      </c>
+      <c r="F173" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>134</v>
+      </c>
+      <c r="H173" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>134</v>
+      </c>
+      <c r="B174" t="s">
+        <v>157</v>
+      </c>
+      <c r="C174" t="s">
+        <v>73</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>73</v>
+      </c>
+      <c r="F174" t="s">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>134</v>
+      </c>
+      <c r="H174" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>134</v>
+      </c>
+      <c r="B175" t="s">
+        <v>158</v>
+      </c>
+      <c r="C175" t="s">
+        <v>73</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" t="s">
+        <v>73</v>
+      </c>
+      <c r="F175" t="s">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>134</v>
+      </c>
+      <c r="H175" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>134</v>
+      </c>
+      <c r="B176" t="s">
+        <v>159</v>
+      </c>
+      <c r="C176" t="s">
+        <v>73</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" t="s">
+        <v>73</v>
+      </c>
+      <c r="F176" t="s">
+        <v>7</v>
+      </c>
+      <c r="G176" t="s">
+        <v>134</v>
+      </c>
+      <c r="H176" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>160</v>
+      </c>
+      <c r="B177" t="s">
+        <v>161</v>
+      </c>
+      <c r="C177" t="s">
+        <v>73</v>
+      </c>
+      <c r="D177" t="s">
+        <v>73</v>
+      </c>
+      <c r="E177" t="s">
+        <v>45</v>
+      </c>
+      <c r="F177" t="s">
+        <v>45</v>
+      </c>
+      <c r="G177" t="s">
+        <v>68</v>
+      </c>
+      <c r="H177" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" t="s">
+        <v>163</v>
+      </c>
+      <c r="C178" t="s">
+        <v>73</v>
+      </c>
+      <c r="D178" t="s">
+        <v>73</v>
+      </c>
+      <c r="E178" t="s">
+        <v>26</v>
+      </c>
+      <c r="F178" t="s">
+        <v>26</v>
+      </c>
+      <c r="G178" t="s">
+        <v>92</v>
+      </c>
+      <c r="H178" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>164</v>
+      </c>
+      <c r="B179" t="s">
+        <v>165</v>
+      </c>
+      <c r="C179" t="s">
+        <v>73</v>
+      </c>
+      <c r="D179" t="s">
+        <v>73</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
+        <v>100</v>
+      </c>
+      <c r="H179" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>166</v>
+      </c>
+      <c r="B180" t="s">
+        <v>167</v>
+      </c>
+      <c r="C180" t="s">
+        <v>73</v>
+      </c>
+      <c r="D180" t="s">
+        <v>73</v>
+      </c>
+      <c r="E180" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180" t="s">
+        <v>7</v>
+      </c>
+      <c r="G180" t="s">
+        <v>134</v>
+      </c>
+      <c r="H180" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>166</v>
+      </c>
+      <c r="B181" t="s">
+        <v>168</v>
+      </c>
+      <c r="C181" t="s">
+        <v>73</v>
+      </c>
+      <c r="D181" t="s">
+        <v>73</v>
+      </c>
+      <c r="E181" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181" t="s">
+        <v>7</v>
+      </c>
+      <c r="G181" t="s">
+        <v>134</v>
+      </c>
+      <c r="H181" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>166</v>
+      </c>
+      <c r="B182" t="s">
+        <v>169</v>
+      </c>
+      <c r="C182" t="s">
+        <v>73</v>
+      </c>
+      <c r="D182" t="s">
+        <v>73</v>
+      </c>
+      <c r="E182" t="s">
+        <v>7</v>
+      </c>
+      <c r="F182" t="s">
+        <v>7</v>
+      </c>
+      <c r="G182" t="s">
+        <v>134</v>
+      </c>
+      <c r="H182" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>166</v>
+      </c>
+      <c r="B183" t="s">
+        <v>170</v>
+      </c>
+      <c r="C183" t="s">
+        <v>73</v>
+      </c>
+      <c r="D183" t="s">
+        <v>73</v>
+      </c>
+      <c r="E183" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183" t="s">
+        <v>7</v>
+      </c>
+      <c r="G183" t="s">
+        <v>134</v>
+      </c>
+      <c r="H183" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>166</v>
+      </c>
+      <c r="B184" t="s">
+        <v>171</v>
+      </c>
+      <c r="C184" t="s">
+        <v>73</v>
+      </c>
+      <c r="D184" t="s">
+        <v>73</v>
+      </c>
+      <c r="E184" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184" t="s">
+        <v>7</v>
+      </c>
+      <c r="G184" t="s">
+        <v>134</v>
+      </c>
+      <c r="H184" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>166</v>
+      </c>
+      <c r="B185" t="s">
+        <v>172</v>
+      </c>
+      <c r="C185" t="s">
+        <v>73</v>
+      </c>
+      <c r="D185" t="s">
+        <v>73</v>
+      </c>
+      <c r="E185" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" t="s">
+        <v>7</v>
+      </c>
+      <c r="G185" t="s">
+        <v>134</v>
+      </c>
+      <c r="H185" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>166</v>
+      </c>
+      <c r="B186" t="s">
+        <v>173</v>
+      </c>
+      <c r="C186" t="s">
+        <v>73</v>
+      </c>
+      <c r="D186" t="s">
+        <v>73</v>
+      </c>
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" t="s">
+        <v>7</v>
+      </c>
+      <c r="G186" t="s">
+        <v>134</v>
+      </c>
+      <c r="H186" s="1">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>166</v>
+      </c>
+      <c r="B187" t="s">
+        <v>174</v>
+      </c>
+      <c r="C187" t="s">
+        <v>73</v>
+      </c>
+      <c r="D187" t="s">
+        <v>73</v>
+      </c>
+      <c r="E187" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" t="s">
+        <v>7</v>
+      </c>
+      <c r="G187" t="s">
+        <v>134</v>
+      </c>
+      <c r="H187" s="1">
+        <v>44528</v>
       </c>
     </row>
   </sheetData>
